--- a/artfynd/A 6469-2022.xlsx
+++ b/artfynd/A 6469-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY39"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104203443</v>
+        <v>112387478</v>
       </c>
       <c r="B39" t="n">
-        <v>90139</v>
+        <v>95006</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5568,44 +5568,41 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1975</v>
+        <v>2569</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Liten kandelabersvamp</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Artomyces cristatus</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Kauffman) Jülich</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Kroktjärnet O., Dls</t>
+          <t>Stora Stickshöjden, Dls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>318138.5606396351</v>
+        <v>318275</v>
       </c>
       <c r="R39" t="n">
-        <v>6554822.488291118</v>
+        <v>6554953</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5629,22 +5626,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5653,32 +5640,366 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Låga</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
+          <t>Anton Larsson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Anton Larsson, Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112387479</v>
+      </c>
+      <c r="B40" t="n">
+        <v>94326</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2590</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kornknutmossa</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Odontoschisma denudatum</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Mart.) Dumort</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Stora Stickshöjden, Dls</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>318301</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6554977</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Dals-Ed</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Dalsland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Nössemark</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Anton Larsson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Anton Larsson, Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>104203443</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90139</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1975</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Liten kandelabersvamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Artomyces cristatus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Kauffman) Jülich</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Kroktjärnet O., Dls</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>318138.5606396351</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6554822.488291118</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Dals-Ed</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Dalsland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Nössemark</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Låga</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
           <t>Tommy Solberg</t>
         </is>
       </c>
-      <c r="AX39" t="inlineStr">
+      <c r="AX41" t="inlineStr">
         <is>
           <t>Tommy Solberg</t>
         </is>
       </c>
-      <c r="AY39" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112387492</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90818</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Stora Stickshöjden, Dls</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>318046</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6554741</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Dals-Ed</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Dalsland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Nössemark</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Anton Larsson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Anton Larsson, Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 6469-2022.xlsx
+++ b/artfynd/A 6469-2022.xlsx
@@ -5556,10 +5556,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112387478</v>
+        <v>104203443</v>
       </c>
       <c r="B39" t="n">
-        <v>95006</v>
+        <v>90139</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5568,41 +5568,44 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2569</v>
+        <v>1975</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Liten kandelabersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Artomyces cristatus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Kauffman) Jülich</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Stora Stickshöjden, Dls</t>
+          <t>Kroktjärnet O., Dls</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>318275</v>
+        <v>318138.5606396351</v>
       </c>
       <c r="R39" t="n">
-        <v>6554953</v>
+        <v>6554822.488291118</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5626,12 +5629,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5640,28 +5653,39 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Låga</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Tommy Solberg</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Anton Larsson, Maria Johansson</t>
+          <t>Tommy Solberg</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112387479</v>
+        <v>112387478</v>
       </c>
       <c r="B40" t="n">
-        <v>94326</v>
+        <v>95020</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5674,21 +5698,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2590</v>
+        <v>2569</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5698,10 +5722,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>318301</v>
+        <v>318275</v>
       </c>
       <c r="R40" t="n">
-        <v>6554977</v>
+        <v>6554953</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5744,21 +5768,6 @@
       </c>
       <c r="AG40" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
@@ -5775,10 +5784,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104203443</v>
+        <v>112387492</v>
       </c>
       <c r="B41" t="n">
-        <v>90139</v>
+        <v>90832</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5787,44 +5796,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1975</v>
+        <v>4368</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Liten kandelabersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Artomyces cristatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Kauffman) Jülich</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Kroktjärnet O., Dls</t>
+          <t>Stora Stickshöjden, Dls</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>318138.5606396351</v>
+        <v>318046</v>
       </c>
       <c r="R41" t="n">
-        <v>6554822.488291118</v>
+        <v>6554741</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5848,22 +5854,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5872,39 +5868,28 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Låga</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Tommy Solberg</t>
+          <t>Anton Larsson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Tommy Solberg</t>
+          <t>Anton Larsson, Maria Johansson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112387492</v>
+        <v>112387479</v>
       </c>
       <c r="B42" t="n">
-        <v>90818</v>
+        <v>94340</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5913,25 +5898,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4368</v>
+        <v>2590</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5941,10 +5926,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>318046</v>
+        <v>318301</v>
       </c>
       <c r="R42" t="n">
-        <v>6554741</v>
+        <v>6554977</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5987,6 +5972,21 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
